--- a/da-ptud-qllkmt/GUI/bin/Debug/BieuMau.xlsx
+++ b/da-ptud-qllkmt/GUI/bin/Debug/BieuMau.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DULIEUHOCTAP\ki6\PhatTrienUngDung\DoAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\DA-PTUD-QLLKMT\da-ptud-qllkmt\GUI\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>%NgayThangNam</t>
   </si>
@@ -32,12 +32,6 @@
     <t>Số TT</t>
   </si>
   <si>
-    <t>CNTT</t>
-  </si>
-  <si>
-    <t>Công nghệ thông tin</t>
-  </si>
-  <si>
     <t>Tên Sản Phẩm</t>
   </si>
   <si>
@@ -83,7 +77,10 @@
     <t>%BieuMau.Gmail</t>
   </si>
   <si>
-    <t>Hồ chí minh, ngày… tháng…năm20…                 Tài Khoản Lập</t>
+    <t xml:space="preserve">Hồ chí minh, ngày… tháng…năm20…                 </t>
+  </si>
+  <si>
+    <t>Tài Khoản Lập</t>
   </si>
 </sst>
 </file>
@@ -132,7 +129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -177,14 +174,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -196,19 +263,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -491,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -504,146 +605,149 @@
     <col min="3" max="3" width="25.625" customWidth="1"/>
     <col min="4" max="4" width="23.875" customWidth="1"/>
     <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="6" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>2</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-    </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E14" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="A13" s="22"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/da-ptud-qllkmt/GUI/bin/Debug/BieuMau.xlsx
+++ b/da-ptud-qllkmt/GUI/bin/Debug/BieuMau.xlsx
@@ -14,6 +14,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="BieuMauMua.Gmail">Sheet1!$F$9</definedName>
+    <definedName name="BieuMauMua.NgayLapHoaDon">Sheet1!$F$6</definedName>
+    <definedName name="BieuMauMua.SoLuong">Sheet1!$C$6</definedName>
+    <definedName name="BieuMauMua.TenSanPham">Sheet1!$B$6</definedName>
+    <definedName name="BieuMauMua.TongTien">Sheet1!$D$6</definedName>
+    <definedName name="BieuMauMua.TongTienHoaDon">Sheet1!$E$6</definedName>
+    <definedName name="NgayThangNam">Sheet1!$D$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,63 +33,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>Công Ty Nguyễn Sơn</t>
+  </si>
   <si>
     <t>%NgayThangNam</t>
   </si>
   <si>
+    <t>Thống kê mua hàng</t>
+  </si>
+  <si>
     <t>Số TT</t>
   </si>
   <si>
     <t>Tên Sản Phẩm</t>
   </si>
   <si>
-    <t>Thống kê mua hàng</t>
-  </si>
-  <si>
-    <t>Công Ty Nguyễn Sơn</t>
-  </si>
-  <si>
     <t>Số Lượng mua</t>
   </si>
   <si>
-    <t>Hồ chí minh, ngày… tháng…năm20…</t>
-  </si>
-  <si>
     <t>Giá Tiền</t>
   </si>
   <si>
     <t>Tổng Tiền</t>
   </si>
   <si>
-    <t>%BieuMau.STT; insert:copystyles</t>
+    <t>Ngày Lập</t>
+  </si>
+  <si>
+    <t>Hồ chí minh, ngày %Ngay tháng %Thang năm %Nam</t>
+  </si>
+  <si>
+    <t>%TenNguoiLap</t>
+  </si>
+  <si>
+    <t>Tên Khách Hàng</t>
+  </si>
+  <si>
+    <t>%TongTien</t>
+  </si>
+  <si>
+    <t>Mã Đơn Hàng</t>
+  </si>
+  <si>
+    <t>%MaDonHang</t>
+  </si>
+  <si>
+    <t>Mã Khách Hàng</t>
+  </si>
+  <si>
+    <t>%MaKhachHang</t>
+  </si>
+  <si>
+    <t>Mã Nhân Viên</t>
+  </si>
+  <si>
+    <t>%MaNhanVien</t>
+  </si>
+  <si>
+    <t>Tên Nhân Viên</t>
+  </si>
+  <si>
+    <t>%TenNhanVien</t>
+  </si>
+  <si>
+    <t>%BieuMau.STT;insert:copystyles</t>
   </si>
   <si>
     <t>%BieuMau.TenSanPham</t>
   </si>
   <si>
-    <t>%BieuMau.SoLuong</t>
+    <t>%BieuMau.soluong</t>
+  </si>
+  <si>
+    <t>%BieuMau.giaban</t>
   </si>
   <si>
     <t>%BieuMau.TongTien</t>
   </si>
   <si>
-    <t>%BieuMau.TongTienHoaDon</t>
-  </si>
-  <si>
-    <t>Ngày Lập</t>
-  </si>
-  <si>
     <t>%BieuMau.NgayLapHoaDon</t>
-  </si>
-  <si>
-    <t>%BieuMau.Gmail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hồ chí minh, ngày… tháng…năm20…                 </t>
-  </si>
-  <si>
-    <t>Tài Khoản Lập</t>
   </si>
 </sst>
 </file>
@@ -95,13 +128,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
@@ -110,6 +136,13 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -141,43 +174,15 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -218,6 +223,34 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -249,67 +282,72 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -592,170 +630,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="55.25" customWidth="1"/>
-    <col min="3" max="3" width="25.625" customWidth="1"/>
-    <col min="4" max="4" width="23.875" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="6" width="24.875" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="32.375" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="33.875" customWidth="1"/>
+    <col min="6" max="6" width="47.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
+      <c r="C5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>14</v>
+      <c r="A6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>18</v>
-      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="26"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="A10" s="18"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="12"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="16"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="A9:D13"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="A8:D12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F8:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
